--- a/Test a Perceptual Phenomenon.xlsx
+++ b/Test a Perceptual Phenomenon.xlsx
@@ -130,7 +130,7 @@
     <t>based on Centeral Limit Theoram</t>
   </si>
   <si>
-    <t xml:space="preserve">We can concluse this from the % values also as most of the values  lies in medum region  </t>
+    <t xml:space="preserve">We can conclued this from the P or  % values also as most of the values  lies in medum region  </t>
   </si>
   <si>
     <t>one values has a % of 99.31 which lies in the alpha region of 5%</t>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -173,6 +173,10 @@
     </font>
     <font>
       <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -496,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -620,6 +624,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -691,11 +698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342061681"/>
-        <c:axId val="460247307"/>
+        <c:axId val="665287382"/>
+        <c:axId val="2029074949"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342061681"/>
+        <c:axId val="665287382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,10 +733,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460247307"/>
+        <c:crossAx val="2029074949"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460247307"/>
+        <c:axId val="2029074949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +784,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342061681"/>
+        <c:crossAx val="665287382"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -850,11 +857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="656692164"/>
-        <c:axId val="102804839"/>
+        <c:axId val="1981757229"/>
+        <c:axId val="584295186"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="656692164"/>
+        <c:axId val="1981757229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,10 +892,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102804839"/>
+        <c:crossAx val="584295186"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102804839"/>
+        <c:axId val="584295186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656692164"/>
+        <c:crossAx val="1981757229"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2611,17 +2618,17 @@
       <c r="H87" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K87" s="13" t="s">
+      <c r="K87" s="54" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="88">
-      <c r="K88" s="13" t="s">
+      <c r="K88" s="54" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="90">
-      <c r="K90" s="13" t="s">
+      <c r="K90" s="55" t="s">
         <v>41</v>
       </c>
     </row>
